--- a/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/AdminTestData.xlsx
+++ b/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/AdminTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3555" tabRatio="599" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3555" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1117,7 +1117,7 @@
   <dimension ref="B1:S7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
